--- a/outputs/monthly_vwap_brand_data.xlsx
+++ b/outputs/monthly_vwap_brand_data.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Month-Year</t>
+          <t>MonthYear</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -17114,13 +17114,35 @@
       <c r="C386" t="n">
         <v>87.87505184070132</v>
       </c>
-      <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr"/>
-      <c r="F386" t="inlineStr"/>
-      <c r="G386" t="inlineStr"/>
-      <c r="H386" t="inlineStr"/>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F386" t="n">
+        <v>33</v>
+      </c>
+      <c r="G386" t="n">
+        <v>1</v>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J386" t="n">
+        <v>1</v>
+      </c>
       <c r="K386" t="n">
         <v>0</v>
       </c>
@@ -17137,13 +17159,35 @@
       <c r="C387" t="n">
         <v>87.93197719290649</v>
       </c>
-      <c r="D387" t="inlineStr"/>
-      <c r="E387" t="inlineStr"/>
-      <c r="F387" t="inlineStr"/>
-      <c r="G387" t="inlineStr"/>
-      <c r="H387" t="inlineStr"/>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>33</v>
+      </c>
+      <c r="G387" t="n">
+        <v>1</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J387" t="n">
+        <v>1</v>
+      </c>
       <c r="K387" t="n">
         <v>0</v>
       </c>
@@ -17160,13 +17204,35 @@
       <c r="C388" t="n">
         <v>89.33078635499095</v>
       </c>
-      <c r="D388" t="inlineStr"/>
-      <c r="E388" t="inlineStr"/>
-      <c r="F388" t="inlineStr"/>
-      <c r="G388" t="inlineStr"/>
-      <c r="H388" t="inlineStr"/>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>33</v>
+      </c>
+      <c r="G388" t="n">
+        <v>1</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J388" t="n">
+        <v>1</v>
+      </c>
       <c r="K388" t="n">
         <v>0</v>
       </c>
@@ -17183,13 +17249,35 @@
       <c r="C389" t="n">
         <v>88.84860235588731</v>
       </c>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
-      <c r="F389" t="inlineStr"/>
-      <c r="G389" t="inlineStr"/>
-      <c r="H389" t="inlineStr"/>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F389" t="n">
+        <v>33</v>
+      </c>
+      <c r="G389" t="n">
+        <v>1</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J389" t="n">
+        <v>1</v>
+      </c>
       <c r="K389" t="n">
         <v>0</v>
       </c>
@@ -17206,13 +17294,35 @@
       <c r="C390" t="n">
         <v>86.17873049799255</v>
       </c>
-      <c r="D390" t="inlineStr"/>
-      <c r="E390" t="inlineStr"/>
-      <c r="F390" t="inlineStr"/>
-      <c r="G390" t="inlineStr"/>
-      <c r="H390" t="inlineStr"/>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F390" t="n">
+        <v>33</v>
+      </c>
+      <c r="G390" t="n">
+        <v>1</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J390" t="n">
+        <v>1</v>
+      </c>
       <c r="K390" t="n">
         <v>0</v>
       </c>
@@ -17229,13 +17339,35 @@
       <c r="C391" t="n">
         <v>85.59908929458037</v>
       </c>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="inlineStr"/>
-      <c r="F391" t="inlineStr"/>
-      <c r="G391" t="inlineStr"/>
-      <c r="H391" t="inlineStr"/>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F391" t="n">
+        <v>33</v>
+      </c>
+      <c r="G391" t="n">
+        <v>1</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J391" t="n">
+        <v>1</v>
+      </c>
       <c r="K391" t="n">
         <v>0</v>
       </c>
@@ -17252,13 +17384,35 @@
       <c r="C392" t="n">
         <v>89.99144806513038</v>
       </c>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="inlineStr"/>
-      <c r="F392" t="inlineStr"/>
-      <c r="G392" t="inlineStr"/>
-      <c r="H392" t="inlineStr"/>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F392" t="n">
+        <v>33</v>
+      </c>
+      <c r="G392" t="n">
+        <v>1</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J392" t="n">
+        <v>1</v>
+      </c>
       <c r="K392" t="n">
         <v>0</v>
       </c>
@@ -17275,13 +17429,35 @@
       <c r="C393" t="n">
         <v>87.72342574059758</v>
       </c>
-      <c r="D393" t="inlineStr"/>
-      <c r="E393" t="inlineStr"/>
-      <c r="F393" t="inlineStr"/>
-      <c r="G393" t="inlineStr"/>
-      <c r="H393" t="inlineStr"/>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F393" t="n">
+        <v>33</v>
+      </c>
+      <c r="G393" t="n">
+        <v>1</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J393" t="n">
+        <v>1</v>
+      </c>
       <c r="K393" t="n">
         <v>0</v>
       </c>
@@ -17298,13 +17474,35 @@
       <c r="C394" t="n">
         <v>92.52643029645981</v>
       </c>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="inlineStr"/>
-      <c r="F394" t="inlineStr"/>
-      <c r="G394" t="inlineStr"/>
-      <c r="H394" t="inlineStr"/>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F394" t="n">
+        <v>33</v>
+      </c>
+      <c r="G394" t="n">
+        <v>1</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J394" t="n">
+        <v>1</v>
+      </c>
       <c r="K394" t="n">
         <v>0</v>
       </c>
@@ -17321,13 +17519,35 @@
       <c r="C395" t="n">
         <v>92.87878651466056</v>
       </c>
-      <c r="D395" t="inlineStr"/>
-      <c r="E395" t="inlineStr"/>
-      <c r="F395" t="inlineStr"/>
-      <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr"/>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F395" t="n">
+        <v>33</v>
+      </c>
+      <c r="G395" t="n">
+        <v>1</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J395" t="n">
+        <v>1</v>
+      </c>
       <c r="K395" t="n">
         <v>0</v>
       </c>
@@ -17344,13 +17564,35 @@
       <c r="C396" t="n">
         <v>95.092138868666</v>
       </c>
-      <c r="D396" t="inlineStr"/>
-      <c r="E396" t="inlineStr"/>
-      <c r="F396" t="inlineStr"/>
-      <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr"/>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F396" t="n">
+        <v>33</v>
+      </c>
+      <c r="G396" t="n">
+        <v>1</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J396" t="n">
+        <v>1</v>
+      </c>
       <c r="K396" t="n">
         <v>0</v>
       </c>
@@ -17367,13 +17609,35 @@
       <c r="C397" t="n">
         <v>90.9330966976091</v>
       </c>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="inlineStr"/>
-      <c r="F397" t="inlineStr"/>
-      <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr"/>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>33</v>
+      </c>
+      <c r="G397" t="n">
+        <v>1</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J397" t="n">
+        <v>1</v>
+      </c>
       <c r="K397" t="n">
         <v>0</v>
       </c>
@@ -17390,13 +17654,35 @@
       <c r="C398" t="n">
         <v>92.67766833877116</v>
       </c>
-      <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr"/>
-      <c r="F398" t="inlineStr"/>
-      <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr"/>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F398" t="n">
+        <v>33</v>
+      </c>
+      <c r="G398" t="n">
+        <v>1</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J398" t="n">
+        <v>1</v>
+      </c>
       <c r="K398" t="n">
         <v>1</v>
       </c>
@@ -17413,13 +17699,35 @@
       <c r="C399" t="n">
         <v>90.10831115173185</v>
       </c>
-      <c r="D399" t="inlineStr"/>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr"/>
-      <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr"/>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>33</v>
+      </c>
+      <c r="G399" t="n">
+        <v>1</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J399" t="n">
+        <v>1</v>
+      </c>
       <c r="K399" t="n">
         <v>1</v>
       </c>
@@ -17436,13 +17744,35 @@
       <c r="C400" t="n">
         <v>72.82927404357312</v>
       </c>
-      <c r="D400" t="inlineStr"/>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr"/>
-      <c r="G400" t="inlineStr"/>
-      <c r="H400" t="inlineStr"/>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>33</v>
+      </c>
+      <c r="G400" t="n">
+        <v>1</v>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J400" t="n">
+        <v>1</v>
+      </c>
       <c r="K400" t="n">
         <v>1</v>
       </c>
@@ -17459,13 +17789,35 @@
       <c r="C401" t="n">
         <v>77.35834993304108</v>
       </c>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr"/>
-      <c r="G401" t="inlineStr"/>
-      <c r="H401" t="inlineStr"/>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F401" t="n">
+        <v>33</v>
+      </c>
+      <c r="G401" t="n">
+        <v>1</v>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J401" t="n">
+        <v>1</v>
+      </c>
       <c r="K401" t="n">
         <v>1</v>
       </c>
@@ -17482,13 +17834,35 @@
       <c r="C402" t="n">
         <v>78.24150445200236</v>
       </c>
-      <c r="D402" t="inlineStr"/>
-      <c r="E402" t="inlineStr"/>
-      <c r="F402" t="inlineStr"/>
-      <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr"/>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F402" t="n">
+        <v>33</v>
+      </c>
+      <c r="G402" t="n">
+        <v>1</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J402" t="n">
+        <v>1</v>
+      </c>
       <c r="K402" t="n">
         <v>1</v>
       </c>
@@ -17505,13 +17879,35 @@
       <c r="C403" t="n">
         <v>83.11690867057909</v>
       </c>
-      <c r="D403" t="inlineStr"/>
-      <c r="E403" t="inlineStr"/>
-      <c r="F403" t="inlineStr"/>
-      <c r="G403" t="inlineStr"/>
-      <c r="H403" t="inlineStr"/>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F403" t="n">
+        <v>33</v>
+      </c>
+      <c r="G403" t="n">
+        <v>1</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J403" t="n">
+        <v>1</v>
+      </c>
       <c r="K403" t="n">
         <v>1</v>
       </c>
@@ -17528,13 +17924,35 @@
       <c r="C404" t="n">
         <v>85.19145251243778</v>
       </c>
-      <c r="D404" t="inlineStr"/>
-      <c r="E404" t="inlineStr"/>
-      <c r="F404" t="inlineStr"/>
-      <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr"/>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F404" t="n">
+        <v>33</v>
+      </c>
+      <c r="G404" t="n">
+        <v>1</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J404" t="n">
+        <v>1</v>
+      </c>
       <c r="K404" t="n">
         <v>1</v>
       </c>
@@ -17551,13 +17969,35 @@
       <c r="C405" t="n">
         <v>85.98305748786306</v>
       </c>
-      <c r="D405" t="inlineStr"/>
-      <c r="E405" t="inlineStr"/>
-      <c r="F405" t="inlineStr"/>
-      <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr"/>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F405" t="n">
+        <v>33</v>
+      </c>
+      <c r="G405" t="n">
+        <v>1</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J405" t="n">
+        <v>1</v>
+      </c>
       <c r="K405" t="n">
         <v>1</v>
       </c>
@@ -17574,13 +18014,35 @@
       <c r="C406" t="n">
         <v>88.29372671040359</v>
       </c>
-      <c r="D406" t="inlineStr"/>
-      <c r="E406" t="inlineStr"/>
-      <c r="F406" t="inlineStr"/>
-      <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr"/>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F406" t="n">
+        <v>33</v>
+      </c>
+      <c r="G406" t="n">
+        <v>1</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J406" t="n">
+        <v>1</v>
+      </c>
       <c r="K406" t="n">
         <v>1</v>
       </c>
@@ -17597,13 +18059,35 @@
       <c r="C407" t="n">
         <v>89.94703913036601</v>
       </c>
-      <c r="D407" t="inlineStr"/>
-      <c r="E407" t="inlineStr"/>
-      <c r="F407" t="inlineStr"/>
-      <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr"/>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F407" t="n">
+        <v>33</v>
+      </c>
+      <c r="G407" t="n">
+        <v>1</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J407" t="n">
+        <v>1</v>
+      </c>
       <c r="K407" t="n">
         <v>1</v>
       </c>
@@ -17620,13 +18104,35 @@
       <c r="C408" t="n">
         <v>89.5066954148505</v>
       </c>
-      <c r="D408" t="inlineStr"/>
-      <c r="E408" t="inlineStr"/>
-      <c r="F408" t="inlineStr"/>
-      <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr"/>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F408" t="n">
+        <v>33</v>
+      </c>
+      <c r="G408" t="n">
+        <v>1</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J408" t="n">
+        <v>1</v>
+      </c>
       <c r="K408" t="n">
         <v>1</v>
       </c>
@@ -17643,13 +18149,35 @@
       <c r="C409" t="n">
         <v>89.96609777630337</v>
       </c>
-      <c r="D409" t="inlineStr"/>
-      <c r="E409" t="inlineStr"/>
-      <c r="F409" t="inlineStr"/>
-      <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr"/>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Henkel AG &amp; Co. KGaA Vz</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>Schwarzkopf</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>33</v>
+      </c>
+      <c r="G409" t="n">
+        <v>1</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>Household &amp; Personal Products</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="J409" t="n">
+        <v>1</v>
+      </c>
       <c r="K409" t="n">
         <v>1</v>
       </c>
@@ -17678,7 +18206,11 @@
       <c r="G410" t="n">
         <v>0</v>
       </c>
-      <c r="H410" t="inlineStr"/>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I410" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -17715,7 +18247,11 @@
       <c r="G411" t="n">
         <v>0</v>
       </c>
-      <c r="H411" t="inlineStr"/>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I411" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -17752,7 +18288,11 @@
       <c r="G412" t="n">
         <v>0</v>
       </c>
-      <c r="H412" t="inlineStr"/>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I412" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -17789,7 +18329,11 @@
       <c r="G413" t="n">
         <v>0</v>
       </c>
-      <c r="H413" t="inlineStr"/>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I413" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -17826,7 +18370,11 @@
       <c r="G414" t="n">
         <v>0</v>
       </c>
-      <c r="H414" t="inlineStr"/>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I414" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -17863,7 +18411,11 @@
       <c r="G415" t="n">
         <v>0</v>
       </c>
-      <c r="H415" t="inlineStr"/>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I415" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -17900,7 +18452,11 @@
       <c r="G416" t="n">
         <v>0</v>
       </c>
-      <c r="H416" t="inlineStr"/>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I416" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -17937,7 +18493,11 @@
       <c r="G417" t="n">
         <v>0</v>
       </c>
-      <c r="H417" t="inlineStr"/>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I417" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -17974,7 +18534,11 @@
       <c r="G418" t="n">
         <v>0</v>
       </c>
-      <c r="H418" t="inlineStr"/>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I418" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18011,7 +18575,11 @@
       <c r="G419" t="n">
         <v>0</v>
       </c>
-      <c r="H419" t="inlineStr"/>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I419" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18048,7 +18616,11 @@
       <c r="G420" t="n">
         <v>0</v>
       </c>
-      <c r="H420" t="inlineStr"/>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I420" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18085,7 +18657,11 @@
       <c r="G421" t="n">
         <v>0</v>
       </c>
-      <c r="H421" t="inlineStr"/>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I421" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18122,7 +18698,11 @@
       <c r="G422" t="n">
         <v>0</v>
       </c>
-      <c r="H422" t="inlineStr"/>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I422" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18159,7 +18739,11 @@
       <c r="G423" t="n">
         <v>0</v>
       </c>
-      <c r="H423" t="inlineStr"/>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I423" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18196,7 +18780,11 @@
       <c r="G424" t="n">
         <v>0</v>
       </c>
-      <c r="H424" t="inlineStr"/>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I424" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18233,7 +18821,11 @@
       <c r="G425" t="n">
         <v>0</v>
       </c>
-      <c r="H425" t="inlineStr"/>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I425" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18270,7 +18862,11 @@
       <c r="G426" t="n">
         <v>0</v>
       </c>
-      <c r="H426" t="inlineStr"/>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I426" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18307,7 +18903,11 @@
       <c r="G427" t="n">
         <v>0</v>
       </c>
-      <c r="H427" t="inlineStr"/>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I427" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18344,7 +18944,11 @@
       <c r="G428" t="n">
         <v>0</v>
       </c>
-      <c r="H428" t="inlineStr"/>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I428" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18381,7 +18985,11 @@
       <c r="G429" t="n">
         <v>0</v>
       </c>
-      <c r="H429" t="inlineStr"/>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I429" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18418,7 +19026,11 @@
       <c r="G430" t="n">
         <v>0</v>
       </c>
-      <c r="H430" t="inlineStr"/>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I430" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18455,7 +19067,11 @@
       <c r="G431" t="n">
         <v>0</v>
       </c>
-      <c r="H431" t="inlineStr"/>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I431" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18492,7 +19108,11 @@
       <c r="G432" t="n">
         <v>0</v>
       </c>
-      <c r="H432" t="inlineStr"/>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I432" t="inlineStr">
         <is>
           <t>Technology</t>
@@ -18529,7 +19149,11 @@
       <c r="G433" t="n">
         <v>0</v>
       </c>
-      <c r="H433" t="inlineStr"/>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Semiconductors</t>
+        </is>
+      </c>
       <c r="I433" t="inlineStr">
         <is>
           <t>Technology</t>

--- a/outputs/monthly_vwap_brand_data.xlsx
+++ b/outputs/monthly_vwap_brand_data.xlsx
@@ -23215,11 +23215,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E530" t="inlineStr"/>
       <c r="F530" t="n">
         <v>0</v>
       </c>
@@ -23260,11 +23256,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E531" t="inlineStr"/>
       <c r="F531" t="n">
         <v>0</v>
       </c>
@@ -23305,11 +23297,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E532" t="inlineStr"/>
       <c r="F532" t="n">
         <v>0</v>
       </c>
@@ -23350,11 +23338,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E533" t="inlineStr"/>
       <c r="F533" t="n">
         <v>0</v>
       </c>
@@ -23395,11 +23379,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E534" t="inlineStr"/>
       <c r="F534" t="n">
         <v>0</v>
       </c>
@@ -23440,11 +23420,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E535" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E535" t="inlineStr"/>
       <c r="F535" t="n">
         <v>0</v>
       </c>
@@ -23485,11 +23461,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E536" t="inlineStr"/>
       <c r="F536" t="n">
         <v>0</v>
       </c>
@@ -23530,11 +23502,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E537" t="inlineStr"/>
       <c r="F537" t="n">
         <v>0</v>
       </c>
@@ -23575,11 +23543,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E538" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E538" t="inlineStr"/>
       <c r="F538" t="n">
         <v>0</v>
       </c>
@@ -23620,11 +23584,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E539" t="inlineStr"/>
       <c r="F539" t="n">
         <v>0</v>
       </c>
@@ -23665,11 +23625,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E540" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E540" t="inlineStr"/>
       <c r="F540" t="n">
         <v>0</v>
       </c>
@@ -23710,11 +23666,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E541" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E541" t="inlineStr"/>
       <c r="F541" t="n">
         <v>0</v>
       </c>
@@ -23755,11 +23707,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E542" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E542" t="inlineStr"/>
       <c r="F542" t="n">
         <v>0</v>
       </c>
@@ -23800,11 +23748,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E543" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E543" t="inlineStr"/>
       <c r="F543" t="n">
         <v>0</v>
       </c>
@@ -23845,11 +23789,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E544" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E544" t="inlineStr"/>
       <c r="F544" t="n">
         <v>0</v>
       </c>
@@ -23890,11 +23830,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E545" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E545" t="inlineStr"/>
       <c r="F545" t="n">
         <v>0</v>
       </c>
@@ -23935,11 +23871,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E546" t="inlineStr"/>
       <c r="F546" t="n">
         <v>0</v>
       </c>
@@ -23980,11 +23912,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E547" t="inlineStr"/>
       <c r="F547" t="n">
         <v>0</v>
       </c>
@@ -24025,11 +23953,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E548" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E548" t="inlineStr"/>
       <c r="F548" t="n">
         <v>0</v>
       </c>
@@ -24070,11 +23994,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E549" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E549" t="inlineStr"/>
       <c r="F549" t="n">
         <v>0</v>
       </c>
@@ -24115,11 +24035,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E550" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E550" t="inlineStr"/>
       <c r="F550" t="n">
         <v>0</v>
       </c>
@@ -24160,11 +24076,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E551" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E551" t="inlineStr"/>
       <c r="F551" t="n">
         <v>0</v>
       </c>
@@ -24205,11 +24117,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E552" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E552" t="inlineStr"/>
       <c r="F552" t="n">
         <v>0</v>
       </c>
@@ -24250,11 +24158,7 @@
           <t>Münchener Rückversicherung-Gesellschaft</t>
         </is>
       </c>
-      <c r="E553" t="inlineStr">
-        <is>
-          <t>ERGO, Munich Re…</t>
-        </is>
-      </c>
+      <c r="E553" t="inlineStr"/>
       <c r="F553" t="n">
         <v>0</v>
       </c>
@@ -25375,7 +25279,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E578" t="inlineStr"/>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F578" t="n">
         <v>1</v>
       </c>
@@ -25416,7 +25324,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E579" t="inlineStr"/>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F579" t="n">
         <v>1</v>
       </c>
@@ -25457,7 +25369,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E580" t="inlineStr"/>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F580" t="n">
         <v>1</v>
       </c>
@@ -25498,7 +25414,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E581" t="inlineStr"/>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F581" t="n">
         <v>1</v>
       </c>
@@ -25539,7 +25459,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E582" t="inlineStr"/>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F582" t="n">
         <v>1</v>
       </c>
@@ -25580,7 +25504,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E583" t="inlineStr"/>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F583" t="n">
         <v>1</v>
       </c>
@@ -25621,7 +25549,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E584" t="inlineStr"/>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F584" t="n">
         <v>1</v>
       </c>
@@ -25662,7 +25594,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E585" t="inlineStr"/>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F585" t="n">
         <v>1</v>
       </c>
@@ -25703,7 +25639,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E586" t="inlineStr"/>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F586" t="n">
         <v>1</v>
       </c>
@@ -25744,7 +25684,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E587" t="inlineStr"/>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F587" t="n">
         <v>1</v>
       </c>
@@ -25785,7 +25729,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E588" t="inlineStr"/>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F588" t="n">
         <v>1</v>
       </c>
@@ -25826,7 +25774,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E589" t="inlineStr"/>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F589" t="n">
         <v>1</v>
       </c>
@@ -25867,7 +25819,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E590" t="inlineStr"/>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F590" t="n">
         <v>1</v>
       </c>
@@ -25908,7 +25864,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E591" t="inlineStr"/>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F591" t="n">
         <v>1</v>
       </c>
@@ -25949,7 +25909,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E592" t="inlineStr"/>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F592" t="n">
         <v>1</v>
       </c>
@@ -25990,7 +25954,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E593" t="inlineStr"/>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F593" t="n">
         <v>1</v>
       </c>
@@ -26031,7 +25999,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E594" t="inlineStr"/>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F594" t="n">
         <v>1</v>
       </c>
@@ -26072,7 +26044,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E595" t="inlineStr"/>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F595" t="n">
         <v>1</v>
       </c>
@@ -26113,7 +26089,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E596" t="inlineStr"/>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F596" t="n">
         <v>1</v>
       </c>
@@ -26154,7 +26134,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E597" t="inlineStr"/>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F597" t="n">
         <v>1</v>
       </c>
@@ -26195,7 +26179,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E598" t="inlineStr"/>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F598" t="n">
         <v>1</v>
       </c>
@@ -26236,7 +26224,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E599" t="inlineStr"/>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F599" t="n">
         <v>1</v>
       </c>
@@ -26277,7 +26269,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E600" t="inlineStr"/>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F600" t="n">
         <v>1</v>
       </c>
@@ -26318,7 +26314,11 @@
           <t>SAP SE</t>
         </is>
       </c>
-      <c r="E601" t="inlineStr"/>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>SAP</t>
+        </is>
+      </c>
       <c r="F601" t="n">
         <v>1</v>
       </c>
